--- a/predictions_Algorith_Valentina_Open_to_close.xlsx
+++ b/predictions_Algorith_Valentina_Open_to_close.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E522FB0-4A47-4482-8FCF-F814922090F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5882471C-9A74-4B3C-88FB-23441F9810AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>prediction</t>
+    <t>pred</t>
   </si>
 </sst>
 </file>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="C401" sqref="C401"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
